--- a/biology/Mycologie/Empusa_(champignon)/Empusa_(champignon).xlsx
+++ b/biology/Mycologie/Empusa_(champignon)/Empusa_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empusa est un genre de champignons parasites de la famille des Entomophthoraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (31 juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (31 juillet 2023) :
 Empusa acaricida Petch, 1940
 Empusa acaridis Petch, 1944
 Empusa acridii A.W. Cooper, 1898
@@ -588,11 +602,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Empusa Cohn, 1855[1]. Empusa a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Empusa Cohn, 1855. Empusa a pour synonyme :
 Myiophyton Lebert, 1857
-Certaines sources[2],[3],[4] considèrent Empusa Cohn, 1855 comme un synonyme de Entomophthora Fresen. 1856.
+Certaines sources considèrent Empusa Cohn, 1855 comme un synonyme de Entomophthora Fresen. 1856.
 </t>
         </is>
       </c>
@@ -621,7 +637,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Ferdinand Cohn, « Empusa Muscae und die Krankheit der Stubenfliegen », Hedwigia, Dresde, Inconnu, C. Heinrich (d) et inconnu, vol. 1, no 10,‎ 1855, p. 57-61 (ISSN 0367-5734, OCLC 1751936, lire en ligne)</t>
         </is>
